--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="QA" sheetId="8" r:id="rId10"/>
     <sheet name="Raider_Category" sheetId="9" r:id="rId11"/>
     <sheet name="Raider" sheetId="10" r:id="rId12"/>
-    <sheet name="Korean" sheetId="11" r:id="rId13"/>
-    <sheet name="Team_Manage" sheetId="12" r:id="rId14"/>
-    <sheet name="Contact_Us" sheetId="13" r:id="rId15"/>
+    <sheet name="Korean_Medicine" sheetId="11" r:id="rId13"/>
+    <sheet name="Core_Team" sheetId="12" r:id="rId14"/>
+    <sheet name="Contact" sheetId="13" r:id="rId15"/>
     <sheet name="CopyRight" sheetId="14" r:id="rId16"/>
     <sheet name="HelpCenter" sheetId="15" r:id="rId17"/>
     <sheet name="Dynamic" sheetId="16" r:id="rId18"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="149">
   <si>
     <t>Project</t>
   </si>
@@ -195,21 +195,12 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>Raider_Type</t>
-  </si>
-  <si>
-    <t>Number_Articles</t>
-  </si>
-  <si>
     <t>Raider_Title</t>
   </si>
   <si>
     <t>Raider_Sec_Title</t>
   </si>
   <si>
-    <t>Cover_Img</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Member_Photo</t>
-  </si>
-  <si>
     <t>Address_Information</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>Hospital_Name</t>
   </si>
   <si>
-    <t>Raider_Category_Id</t>
-  </si>
-  <si>
     <t>Copyright_Content</t>
   </si>
   <si>
@@ -372,18 +357,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>Case_Title</t>
-  </si>
-  <si>
-    <t>Case_Time</t>
-  </si>
-  <si>
-    <t>Chief_surgeon</t>
-  </si>
-  <si>
-    <t>Case_Introduction</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
@@ -492,7 +465,28 @@
     <t>ActionId</t>
   </si>
   <si>
-    <t>Case_Photo</t>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Case_Img</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Article_Cnt</t>
+  </si>
+  <si>
+    <t>Category_Name</t>
+  </si>
+  <si>
+    <t>Category_Id</t>
+  </si>
+  <si>
+    <t>Raider_Img</t>
+  </si>
+  <si>
+    <t>Member_Img</t>
   </si>
 </sst>
 </file>
@@ -709,6 +703,53 @@
         <a:xfrm flipV="1">
           <a:off x="1790700" y="2133600"/>
           <a:ext cx="1314450" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="885825"/>
+          <a:ext cx="1381125" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1235,7 +1276,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1289,10 +1330,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1313,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1368,31 +1409,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1400,21 +1441,21 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -1425,13 +1466,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -1439,13 +1480,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -1459,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>10</v>
@@ -1471,7 +1512,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
@@ -1479,13 +1520,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -1503,7 +1544,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,15 +1571,15 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1557,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1611,7 +1652,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1679,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1646,7 +1687,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1654,7 +1695,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -1662,7 +1703,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1670,7 +1711,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -1697,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1719,7 +1760,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1795,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1794,7 +1835,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1862,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1829,7 +1870,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1845,7 +1886,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1864,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1885,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +1954,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1921,7 +1962,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1964,7 +2005,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1972,7 +2013,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2014,7 +2055,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2022,7 +2063,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2065,7 +2106,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2073,7 +2114,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2081,7 +2122,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2089,7 +2130,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2116,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2165,7 +2206,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2173,7 +2214,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2181,7 +2222,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2189,7 +2230,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2216,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2237,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2307,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2277,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2285,7 +2326,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2378,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2401,7 +2442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2409,7 +2450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2436,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2521,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2488,7 +2529,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2496,7 +2537,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2504,29 +2545,29 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -2537,11 +2578,11 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B9" s="3"/>
       <c r="E9" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -2549,13 +2590,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2563,13 +2604,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>10</v>
@@ -2580,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
@@ -2597,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -2640,7 +2681,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2648,7 +2689,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2664,7 +2705,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2672,7 +2713,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2680,7 +2721,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -2688,7 +2729,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -2754,7 +2795,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2762,7 +2803,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2778,7 +2819,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2786,22 +2827,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
@@ -2812,13 +2853,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2826,10 +2867,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2912,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2946,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2957,41 +2998,41 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3002,26 +3043,26 @@
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -3035,13 +3076,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3049,16 +3090,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3126,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3113,15 +3154,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3132,7 +3173,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3140,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3231,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3198,7 +3239,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3206,7 +3247,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3214,7 +3255,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -3353,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3406,7 +3447,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3414,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3483,7 +3524,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,10 +3553,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -3580,7 +3621,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,12 +3650,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -3628,7 +3669,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3648,7 +3689,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -3662,7 +3703,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -3676,7 +3717,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -3690,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -3704,7 +3745,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3748,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3781,10 +3822,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3792,10 +3833,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,7 +3861,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -3834,7 +3875,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -3848,7 +3889,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -3862,7 +3903,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3873,10 +3914,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -3887,10 +3928,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -3899,7 +3940,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
@@ -3916,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -3930,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -3944,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -3956,6 +3997,44 @@
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3969,13 +4048,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
@@ -4001,7 +4080,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -4009,15 +4088,15 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -4027,7 +4106,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -4037,18 +4116,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="CopyRight" sheetId="14" r:id="rId16"/>
     <sheet name="HelpCenter" sheetId="15" r:id="rId17"/>
     <sheet name="Dynamic" sheetId="16" r:id="rId18"/>
-    <sheet name="Industry_Info" sheetId="17" r:id="rId19"/>
+    <sheet name="Industry" sheetId="17" r:id="rId19"/>
     <sheet name="Recruitment" sheetId="18" r:id="rId20"/>
     <sheet name="Guide" sheetId="19" r:id="rId21"/>
     <sheet name="Product" sheetId="20" r:id="rId22"/>
@@ -210,12 +210,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Address_Information</t>
-  </si>
-  <si>
-    <t>Address_Picture</t>
-  </si>
-  <si>
     <t>Copyright_Title</t>
   </si>
   <si>
@@ -237,51 +231,18 @@
     <t>Dynamic_Content</t>
   </si>
   <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Info_Subtitle</t>
-  </si>
-  <si>
-    <t>Info_Img</t>
-  </si>
-  <si>
-    <t>Info_Content</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Boot_Page_Title</t>
-  </si>
-  <si>
-    <t>Boot_Page_Img</t>
-  </si>
-  <si>
     <t>Product_Title</t>
   </si>
   <si>
-    <t>Cover_Map</t>
-  </si>
-  <si>
-    <t>Promotion</t>
-  </si>
-  <si>
-    <t>Original_Price</t>
-  </si>
-  <si>
     <t>Double</t>
   </si>
   <si>
     <t>Start_Price</t>
   </si>
   <si>
-    <t>Commodity_Booking</t>
-  </si>
-  <si>
-    <t>Associated_Project</t>
-  </si>
-  <si>
     <t>Price_Description</t>
   </si>
   <si>
@@ -420,9 +381,6 @@
     <t>QA_Id</t>
   </si>
   <si>
-    <t>Product_Project</t>
-  </si>
-  <si>
     <t>Product_Id</t>
   </si>
   <si>
@@ -487,6 +445,48 @@
   </si>
   <si>
     <t>Member_Img</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Contact_Img</t>
+  </si>
+  <si>
+    <t>Industry_Title</t>
+  </si>
+  <si>
+    <t>Industry_Subtitle</t>
+  </si>
+  <si>
+    <t>Industry_Img</t>
+  </si>
+  <si>
+    <t>Industry_Content</t>
+  </si>
+  <si>
+    <t>BootPage_Title</t>
+  </si>
+  <si>
+    <t>BootPage_Img</t>
+  </si>
+  <si>
+    <t>Cover_Img</t>
+  </si>
+  <si>
+    <t>Promotion_Img</t>
+  </si>
+  <si>
+    <t>Promotion_Image</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Origin_Price</t>
+  </si>
+  <si>
+    <t>Booking</t>
   </si>
 </sst>
 </file>
@@ -835,25 +835,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1504950" y="1333500"/>
-          <a:ext cx="2038350" cy="390525"/>
+        <a:xfrm>
+          <a:off x="1866900" y="876300"/>
+          <a:ext cx="1676400" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1313,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1409,31 +1409,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1441,21 +1441,21 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>10</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>10</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -1571,15 +1571,15 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1598,7 +1598,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1738,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1905,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2157,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2179,12 +2179,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2257,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2318,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2442,7 +2442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2466,18 +2466,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2488,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2537,37 +2537,35 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -2578,11 +2576,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2604,44 +2604,48 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2685,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2689,7 +2693,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2705,7 +2709,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2713,7 +2717,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2721,7 +2725,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -2729,7 +2733,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -2795,7 +2799,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2803,7 +2807,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2819,7 +2823,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2827,22 +2831,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>2</v>
@@ -2853,13 +2857,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2867,10 +2871,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2916,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2987,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2998,41 +3002,41 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3043,26 +3047,26 @@
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -3076,13 +3080,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3090,16 +3094,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3154,15 +3158,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3173,7 +3177,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3235,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3239,7 +3243,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3247,7 +3251,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3255,7 +3259,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -3394,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3447,7 +3451,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,7 +3459,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,10 +3557,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -3650,12 +3654,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -3669,7 +3673,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3689,7 +3693,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -3703,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -3717,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -3731,10 +3735,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -3745,7 +3749,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3822,10 +3826,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,10 +3837,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3861,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -3875,7 +3879,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -3889,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -3903,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3917,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -3928,10 +3932,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -3940,7 +3944,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
@@ -3957,7 +3961,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -3971,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -3985,7 +3989,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -4015,7 +4019,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="6" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -4023,7 +4027,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>10</v>
@@ -4031,10 +4035,10 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4080,7 +4084,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -4088,10 +4092,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,7 +4110,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -4116,13 +4120,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="13" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="Nation" sheetId="25" r:id="rId25"/>
     <sheet name="OrderCancel" sheetId="26" r:id="rId26"/>
     <sheet name="Failure_Order" sheetId="27" r:id="rId27"/>
+    <sheet name="Notification" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="153">
   <si>
     <t>Project</t>
   </si>
@@ -249,9 +250,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>User_ID</t>
-  </si>
-  <si>
     <t>User_Account</t>
   </si>
   <si>
@@ -375,12 +373,6 @@
     <t>(Doctor Id)</t>
   </si>
   <si>
-    <t>QA_Project</t>
-  </si>
-  <si>
-    <t>QA_Id</t>
-  </si>
-  <si>
     <t>Product_Id</t>
   </si>
   <si>
@@ -487,6 +479,27 @@
   </si>
   <si>
     <t>Booking</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>PageViews</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -783,58 +796,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1866900" y="1304925"/>
-          <a:ext cx="1419225" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -882,7 +843,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -934,7 +895,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1313,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1330,10 +1291,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1354,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1376,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1409,31 +1370,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1441,55 +1402,37 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,43 +1442,42 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="E12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1544,7 +1486,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,15 +1513,15 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1598,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1652,7 +1594,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1621,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1703,7 +1645,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1738,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1886,7 +1828,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1905,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1927,7 +1869,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1896,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1962,7 +1904,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2013,7 +1955,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2157,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2206,7 +2148,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2214,7 +2156,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2222,7 +2164,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2230,7 +2172,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2257,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2279,7 +2221,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2249,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2318,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,7 +2268,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2442,7 +2384,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2450,7 +2392,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2469,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2490,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="A6:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2471,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2537,13 +2479,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -2557,12 +2499,12 @@
         <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>65</v>
@@ -2576,13 +2518,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -2590,13 +2532,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2604,16 +2546,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,7 +2601,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="A7" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2627,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2693,7 +2635,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2709,7 +2651,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2717,7 +2659,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2725,7 +2667,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -2733,19 +2675,27 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -2753,6 +2703,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2761,7 +2712,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2799,7 +2750,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2807,7 +2758,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2823,7 +2774,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2831,19 +2782,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -2857,13 +2808,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2871,10 +2822,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2867,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2960,7 +2911,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3002,41 +2953,41 @@
         <v>29</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -3047,26 +2998,26 @@
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -3080,13 +3031,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3094,16 +3045,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3121,6 +3072,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3158,15 +3204,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3177,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3207,7 +3253,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3235,7 +3281,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3243,7 +3289,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3251,7 +3297,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3259,7 +3305,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -3398,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3451,7 +3497,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3459,7 +3505,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,10 +3603,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -3625,7 +3671,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,12 +3700,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -3673,7 +3719,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3693,7 +3739,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -3707,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -3721,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -3735,10 +3781,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -3749,7 +3795,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3796,7 +3842,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3826,10 +3872,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3837,10 +3883,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3911,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -3879,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -3893,7 +3939,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -3907,7 +3953,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3921,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -3932,10 +3978,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -3944,7 +3990,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
@@ -3961,7 +4007,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -3975,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -3989,7 +4035,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -4019,7 +4065,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -4027,7 +4073,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>10</v>
@@ -4035,10 +4081,10 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +4099,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4084,7 +4130,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -4092,10 +4138,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,7 +4156,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -4120,13 +4166,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="13" activeTab="27"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,14 @@
     <sheet name="OrderCancel" sheetId="26" r:id="rId26"/>
     <sheet name="Failure_Order" sheetId="27" r:id="rId27"/>
     <sheet name="Notification" sheetId="28" r:id="rId28"/>
+    <sheet name="Order_Status" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="167">
   <si>
     <t>Project</t>
   </si>
@@ -250,9 +251,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>User_Account</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -500,6 +498,51 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>Order Table</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Pending Payment</t>
+  </si>
+  <si>
+    <t>Pending refund</t>
+  </si>
+  <si>
+    <t>To be used</t>
+  </si>
+  <si>
+    <t>Waiting to write a diary</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Refund successfully</t>
+  </si>
+  <si>
+    <t>Refund_Order</t>
+  </si>
+  <si>
+    <t>Refund_Date</t>
+  </si>
+  <si>
+    <t>Refund_Reason</t>
+  </si>
+  <si>
+    <t>Status_Id</t>
+  </si>
+  <si>
+    <t>Fail_Order</t>
+  </si>
+  <si>
+    <t>Return_Reason</t>
+  </si>
+  <si>
+    <t>Fail_Reason</t>
   </si>
 </sst>
 </file>
@@ -541,15 +584,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -557,11 +612,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,6 +669,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1291,10 +1401,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1315,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1340,7 +1450,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1370,31 +1480,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1402,7 +1512,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1411,17 +1521,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -1429,10 +1539,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,7 +1555,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1453,7 +1563,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1461,7 +1571,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1469,10 +1579,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1513,15 +1623,15 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1540,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1621,7 +1731,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1645,7 +1755,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1680,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1828,7 +1938,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -1847,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1896,7 +2006,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1904,7 +2014,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1955,7 +2065,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2099,7 +2209,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2148,7 +2258,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2156,7 +2266,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2164,7 +2274,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -2172,7 +2282,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2199,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2249,7 +2359,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2260,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2268,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2494,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2392,7 +2502,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2411,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2433,7 +2543,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A6:B15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2581,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2479,13 +2589,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -2499,12 +2609,12 @@
         <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>65</v>
@@ -2518,13 +2628,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>13</v>
@@ -2532,13 +2642,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -2546,16 +2656,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2579,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,7 +2737,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2635,7 +2745,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2651,7 +2761,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2659,7 +2769,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2667,7 +2777,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -2675,7 +2785,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -2683,7 +2793,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -2691,7 +2801,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -2709,22 +2819,25 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="5" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2740,31 +2853,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2772,29 +2881,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
@@ -2805,27 +2914,191 @@
       <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>113</v>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +3140,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -2908,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2920,107 +3193,105 @@
     <col min="2" max="2" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="6"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>2</v>
@@ -3031,13 +3302,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3045,19 +3316,50 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>113</v>
-      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3080,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3402,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -3116,7 +3418,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3124,7 +3426,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3135,12 +3437,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -3168,6 +3470,46 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3204,15 +3546,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3223,7 +3565,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3231,7 +3573,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3623,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -3289,7 +3631,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3297,7 +3639,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3305,7 +3647,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -3444,7 +3786,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3839,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3847,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3603,10 +3945,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -3671,7 +4013,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,12 +4042,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -3719,7 +4061,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -3739,7 +4081,7 @@
         <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -3753,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -3767,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -3781,10 +4123,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -3795,7 +4137,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3842,7 +4184,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3872,10 +4214,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3883,10 +4225,10 @@
         <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,7 +4253,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -3925,7 +4267,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -3939,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>10</v>
@@ -3953,7 +4295,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
@@ -3967,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -3978,10 +4320,10 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -3990,7 +4332,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>2</v>
@@ -4007,7 +4349,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -4021,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>10</v>
@@ -4035,7 +4377,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>10</v>
@@ -4065,7 +4407,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>10</v>
@@ -4073,7 +4415,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>10</v>
@@ -4081,10 +4423,10 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4130,7 +4472,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -4138,10 +4480,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,7 +4498,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -4166,13 +4508,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/database.xlsx
+++ b/database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19440" windowHeight="12600" tabRatio="986" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Banner" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="169">
   <si>
     <t>Project</t>
   </si>
@@ -458,9 +458,6 @@
     <t>BootPage_Title</t>
   </si>
   <si>
-    <t>BootPage_Img</t>
-  </si>
-  <si>
     <t>Cover_Img</t>
   </si>
   <si>
@@ -543,6 +540,15 @@
   </si>
   <si>
     <t>Fail_Reason</t>
+  </si>
+  <si>
+    <t>CaseImage</t>
+  </si>
+  <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>Guide_Img</t>
   </si>
 </sst>
 </file>
@@ -671,6 +677,15 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,15 +693,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1979,7 +1985,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2581,7 +2587,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2589,13 +2595,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>65</v>
@@ -2609,12 +2615,12 @@
         <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>65</v>
@@ -2662,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>112</v>
@@ -2745,7 +2751,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -2761,7 +2767,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -2821,7 +2827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2918,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2938,7 +2944,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +2958,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2960,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2976,16 +2982,16 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -3067,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>12</v>
@@ -3075,13 +3081,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>89</v>
@@ -3089,13 +3095,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>89</v>
@@ -3202,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3263,7 +3269,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>65</v>
@@ -3338,22 +3344,22 @@
     </row>
     <row r="25" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="12"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="13"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="14"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="9"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="10"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="8:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="11"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3418,7 +3424,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -3437,12 +3443,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -4438,7 +4444,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -4454,7 +4460,7 @@
     <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -4470,7 +4476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>124</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -4496,7 +4502,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
@@ -4505,8 +4511,11 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -4533,7 +4542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4541,7 +4550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4549,13 +4558,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
